--- a/server/src/main/java/net/guides/springboot2/crud/templates/FacturaTemplate.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/FacturaTemplate.xlsx
@@ -460,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,6 +516,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,6 +648,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,23 +750,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,8 +1041,8 @@
   </sheetPr>
   <dimension ref="B1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66:R67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,498 +1055,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="87"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="17"/>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="94" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="17"/>
-      <c r="O1" s="87" t="s">
+      <c r="O1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="87"/>
+      <c r="P1" s="94"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
       <c r="S1" s="18"/>
     </row>
     <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="88"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="25"/>
-      <c r="M2" s="88"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="25"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="19"/>
     </row>
     <row r="3" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="89"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="89"/>
+      <c r="M3" s="96"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="91" t="s">
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="86" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="86" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="86" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="86" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="2"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="86" t="s">
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="86" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
     </row>
     <row r="22" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="79" t="s">
+      <c r="K22" s="42"/>
+      <c r="L22" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79" t="s">
+      <c r="M22" s="86"/>
+      <c r="N22" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79" t="s">
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="R22" s="92"/>
+      <c r="R22" s="99"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="96"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="93"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="100"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="94"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="101"/>
     </row>
     <row r="25" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
     </row>
@@ -1547,709 +1556,709 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="82">
+      <c r="E26" s="89">
         <v>1</v>
       </c>
-      <c r="F26" s="82"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14">
         <v>2</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="89">
         <v>3</v>
       </c>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82">
+      <c r="K26" s="89"/>
+      <c r="L26" s="89">
         <v>4</v>
       </c>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82">
+      <c r="M26" s="89"/>
+      <c r="N26" s="89">
         <v>5</v>
       </c>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82">
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89">
         <v>6</v>
       </c>
-      <c r="R26" s="82"/>
+      <c r="R26" s="89"/>
     </row>
     <row r="27" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="32"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="32"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="32"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="32"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="32"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="33"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="32"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="33"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="32"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="33"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="32"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="33"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="32"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="33"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="32"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="33"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="32"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="33"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="32"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="33"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="32"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="33"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="32"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="33"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="32"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="33"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="32"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="33"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="32"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="33"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="32"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="33"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="32"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="33"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="32"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="33"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="32"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="33"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="33"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="27"/>
       <c r="C62" s="28"/>
       <c r="D62" s="29"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
       <c r="G62" s="29"/>
       <c r="H62" s="30"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
       <c r="L62" s="28"/>
       <c r="M62" s="30"/>
       <c r="N62" s="28"/>
@@ -2260,280 +2269,280 @@
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" s="12"/>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
       <c r="R63" s="11"/>
     </row>
     <row r="64" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="J64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="J64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
     </row>
     <row r="65" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="63"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="64"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="72" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="102"/>
-      <c r="O66" s="103"/>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="103"/>
-      <c r="S66" s="66"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="76"/>
+      <c r="P66" s="66"/>
+      <c r="Q66" s="75"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="67"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="105"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="105"/>
-      <c r="S67" s="66"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="67"/>
     </row>
     <row r="68" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="66"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="67"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="72" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="102"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="103"/>
-      <c r="S69" s="66"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="76"/>
+      <c r="S69" s="67"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="104"/>
-      <c r="O70" s="107"/>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="107"/>
-      <c r="R70" s="105"/>
-      <c r="S70" s="66"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="80"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="67"/>
     </row>
     <row r="71" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="55"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="68"/>
-      <c r="R71" s="68"/>
-      <c r="S71" s="69"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="70"/>
     </row>
     <row r="72" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
     </row>
     <row r="73" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="45" t="s">
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="45"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
     </row>
     <row r="75" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
       <c r="D75" s="24"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="63"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="64"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="58" t="s">
+      <c r="F76" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="G76" s="58"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="64"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="66"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="67"/>
     </row>
     <row r="77" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="7"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="N77" s="64"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="66"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="N77" s="65"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="67"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
@@ -2546,61 +2555,61 @@
       <c r="G78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="58" t="s">
+      <c r="H78" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58" t="s">
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="L78" s="58"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="64"/>
-      <c r="O78" s="65"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="66"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="65"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="67"/>
     </row>
     <row r="79" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="72" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="7"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="66"/>
+      <c r="N79" s="65"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="66"/>
+      <c r="Q79" s="66"/>
+      <c r="R79" s="67"/>
     </row>
     <row r="80" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
-      <c r="C80" s="71"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="8"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="58" t="s">
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M80" s="70"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="65"/>
-      <c r="R80" s="66"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="66"/>
+      <c r="R80" s="67"/>
     </row>
     <row r="81" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
-      <c r="C81" s="71"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="8"/>
       <c r="E81" s="7"/>
       <c r="F81" s="1"/>
@@ -2610,66 +2619,66 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="65"/>
-      <c r="R81" s="66"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="66"/>
+      <c r="R81" s="67"/>
     </row>
     <row r="82" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
-      <c r="C82" s="71"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="8"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="58" t="s">
+      <c r="F82" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="65"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="65"/>
-      <c r="R82" s="66"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="66"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="67"/>
     </row>
     <row r="83" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
-      <c r="C83" s="71"/>
+      <c r="C83" s="72"/>
       <c r="D83" s="8"/>
       <c r="E83" s="7"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="66"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
+      <c r="Q83" s="66"/>
+      <c r="R83" s="67"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="58" t="s">
+      <c r="F84" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58" t="s">
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="64"/>
-      <c r="O84" s="65"/>
-      <c r="P84" s="65"/>
-      <c r="Q84" s="65"/>
-      <c r="R84" s="66"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="66"/>
+      <c r="P84" s="66"/>
+      <c r="Q84" s="66"/>
+      <c r="R84" s="67"/>
     </row>
     <row r="85" spans="2:18" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
@@ -2684,31 +2693,31 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="66"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="66"/>
+      <c r="P85" s="66"/>
+      <c r="Q85" s="66"/>
+      <c r="R85" s="67"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="65"/>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="65"/>
-      <c r="R86" s="66"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="66"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="67"/>
     </row>
     <row r="87" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="68"/>
-      <c r="P87" s="68"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="69"/>
+      <c r="N87" s="68"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+      <c r="Q87" s="69"/>
+      <c r="R87" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="242">
@@ -2778,7 +2787,6 @@
     <mergeCell ref="J1:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="E16:I16"/>
-    <mergeCell ref="N13:R16"/>
     <mergeCell ref="N17:R17"/>
     <mergeCell ref="N18:R18"/>
     <mergeCell ref="J13:M13"/>
@@ -2793,6 +2801,7 @@
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N13:R14"/>
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="J25:K25"/>
